--- a/Fase 1/F1-Descrição_use_cases.xlsx
+++ b/Fase 1/F1-Descrição_use_cases.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UM\Informática\3º Ano\1º Semestre\DSS\dss-1617\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UM\Informática\3º Ano\1º Semestre\DSS\dss-1617\Fase 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="111">
   <si>
     <r>
       <t xml:space="preserve">  </t>
@@ -125,9 +125,6 @@
     <t>Fornece dados do morador</t>
   </si>
   <si>
-    <t>Regista dados</t>
-  </si>
-  <si>
     <t>Devolve dados de autenticação do novo morador</t>
   </si>
   <si>
@@ -271,9 +268,6 @@
     <t>Regista um apartamento no sistema</t>
   </si>
   <si>
-    <t>Fornece valor total da renda</t>
-  </si>
-  <si>
     <t>Regista o apartamento</t>
   </si>
   <si>
@@ -301,22 +295,13 @@
     <t>Apresenta lista das despesas por pagar</t>
   </si>
   <si>
-    <t>Seleciona os moradores</t>
-  </si>
-  <si>
     <t>Apresenta os nomes dos moradores</t>
   </si>
   <si>
-    <t>Apresenta a lista das despesas dos moradores</t>
-  </si>
-  <si>
     <t>Apresenta lista das despesas pagas</t>
   </si>
   <si>
     <t>Ver Despesas Pagas</t>
-  </si>
-  <si>
-    <t>Apresenta a lista das despesas pagas pelos moradores</t>
   </si>
   <si>
     <t xml:space="preserve">Senhorio, administrador ou morador autenticado </t>
@@ -353,12 +338,6 @@
     <t>Morador encontra-se autenticado e tem despesas por pagar</t>
   </si>
   <si>
-    <t>Valida dados da despesa</t>
-  </si>
-  <si>
-    <t>Indica o dados da despesa</t>
-  </si>
-  <si>
     <t>Apresenta valor da despesa</t>
   </si>
   <si>
@@ -368,10 +347,6 @@
     <t>Valida pagamento</t>
   </si>
   <si>
-    <t>Excepção 1               (passo 5)
-[morador não tem saldo suficiente]</t>
-  </si>
-  <si>
     <t>Informa que morador não tem saldo suficiente para pagar despesa</t>
   </si>
   <si>
@@ -402,19 +377,57 @@
     <t>Indica o valor que quer acrescentar à conta</t>
   </si>
   <si>
-    <t>Apresenta o saldo da conta</t>
-  </si>
-  <si>
-    <t>Regista o valor</t>
-  </si>
-  <si>
-    <t>Acrescenta o valor ao slado da conta</t>
-  </si>
-  <si>
     <t>Informa que o saldo foi atualizado</t>
   </si>
   <si>
     <t>Apresenta novo saldo da conta</t>
+  </si>
+  <si>
+    <t>Indica que o apartamento foi registado</t>
+  </si>
+  <si>
+    <t>Excepção 1               (passo 2)
+[apartamento já existe no sistema]</t>
+  </si>
+  <si>
+    <t>Indica que o apartamento já existe</t>
+  </si>
+  <si>
+    <t>Fornece dados do apartamento</t>
+  </si>
+  <si>
+    <t>Valida dados do apartamento</t>
+  </si>
+  <si>
+    <t>Valida dados do morador</t>
+  </si>
+  <si>
+    <t>Regista dados do morador</t>
+  </si>
+  <si>
+    <t>Atualiza fração da renda dos restantes moradores, caso existam</t>
+  </si>
+  <si>
+    <t>Seleciona o(s) morador(es)</t>
+  </si>
+  <si>
+    <t>Apresenta a lista das despesas do(s) morador(es)</t>
+  </si>
+  <si>
+    <t>Apresenta a lista das despesas pagas pelo(s) morador(es)</t>
+  </si>
+  <si>
+    <t>Acrescenta o valor ao saldo da conta</t>
+  </si>
+  <si>
+    <t>Seleciona a despesa</t>
+  </si>
+  <si>
+    <t>Excepção 1               (passo 4)
+[saldo insuficiente]</t>
+  </si>
+  <si>
+    <t>Apresenta o saldo da conta do morador</t>
   </si>
 </sst>
 </file>
@@ -829,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D13"/>
+  <dimension ref="A3:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -849,7 +862,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -857,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -886,7 +899,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -894,17 +907,54 @@
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>60</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="5">
+        <v>3</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="6"/>
+      <c r="B11" s="5">
+        <v>4</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="7"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="7"/>
+      <c r="B14" s="5">
+        <v>2</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -916,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -934,7 +984,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -942,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -971,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -979,7 +1029,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -987,7 +1037,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1004,13 +1054,13 @@
     </row>
     <row r="13" spans="1:4" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1018,7 +1068,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1029,10 +1079,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:K19"/>
+  <dimension ref="A3:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1049,7 +1099,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1057,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1065,7 +1115,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1089,108 +1139,108 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1">
+        <f>B8+1</f>
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10"/>
       <c r="B10" s="1">
+        <f t="shared" ref="B10:B16" si="0">B9+1</f>
         <v>3</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="C10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11"/>
       <c r="B11" s="1">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="10"/>
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A12"/>
       <c r="B12" s="1">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A13"/>
       <c r="B13" s="1">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A14"/>
       <c r="B14" s="1">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A15"/>
       <c r="B15" s="1">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A16"/>
       <c r="B16" s="1">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17"/>
-      <c r="B17" s="1">
-        <v>10</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18"/>
-      <c r="C18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>92</v>
+      <c r="C17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1204,7 +1254,7 @@
   <dimension ref="A3:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1221,7 +1271,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1229,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1237,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1261,7 +1311,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1269,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1277,7 +1327,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1286,7 +1336,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1295,17 +1345,11 @@
         <v>5</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="6"/>
-      <c r="B13" s="5">
-        <v>6</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>106</v>
-      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="6"/>
@@ -1326,7 +1370,7 @@
   <dimension ref="A3:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1334,7 +1378,7 @@
     <col min="1" max="1" width="20.15625" style="5" customWidth="1"/>
     <col min="2" max="2" width="8.83984375" style="5"/>
     <col min="3" max="3" width="46.734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.83984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.3125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.83984375" style="1"/>
   </cols>
   <sheetData>
@@ -1382,7 +1426,7 @@
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -1397,7 +1441,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1405,7 +1449,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1414,7 +1458,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="10"/>
     </row>
@@ -1423,7 +1467,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1431,7 +1475,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1439,7 +1483,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1447,7 +1491,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1455,7 +1499,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1463,7 +1507,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -1476,15 +1520,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="B19" s="5">
-        <v>1</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1492,7 +1536,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -1507,13 +1551,13 @@
     </row>
     <row r="22" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="B22" s="5">
-        <v>1</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1521,7 +1565,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -1570,7 +1614,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1578,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1586,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1594,7 +1638,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6" s="5"/>
     </row>
@@ -1624,7 +1668,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1632,7 +1676,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1640,7 +1684,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" s="10"/>
     </row>
@@ -1649,7 +1693,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1657,7 +1701,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1665,7 +1709,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -1680,13 +1724,13 @@
     </row>
     <row r="16" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="B16" s="5">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="J16" s="10"/>
     </row>
@@ -1696,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1730,7 +1774,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1738,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1746,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1780,7 +1824,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1788,7 +1832,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1796,7 +1840,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1804,7 +1848,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1812,7 +1856,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1827,13 +1871,13 @@
     </row>
     <row r="15" spans="1:8" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="H15" s="10"/>
     </row>
@@ -1843,7 +1887,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1858,13 +1902,13 @@
     </row>
     <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="B18" s="5">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1872,7 +1916,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1887,13 +1931,13 @@
     </row>
     <row r="21" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="B21" s="5">
-        <v>1</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="G21" s="10"/>
     </row>
@@ -1902,7 +1946,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1933,7 +1977,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1941,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1949,7 +1993,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1981,7 +2025,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1989,7 +2033,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1998,7 +2042,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2007,7 +2051,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H12" s="10"/>
     </row>
@@ -2017,7 +2061,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H13" s="10"/>
     </row>
@@ -2033,13 +2077,13 @@
     </row>
     <row r="15" spans="1:8" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="G15" s="10"/>
     </row>
@@ -2049,7 +2093,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2064,13 +2108,13 @@
     </row>
     <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="B18" s="5">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2078,7 +2122,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2091,8 +2135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2109,7 +2153,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2117,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2125,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="12"/>
     </row>
@@ -2152,7 +2196,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2160,7 +2204,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2168,7 +2212,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2176,7 +2220,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2185,7 +2229,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2200,13 +2244,13 @@
     </row>
     <row r="14" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="B14" s="5">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="H14" s="11"/>
     </row>
@@ -2216,7 +2260,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="12:12" x14ac:dyDescent="0.55000000000000004">
@@ -2232,7 +2276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -2250,7 +2294,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2258,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2266,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2292,7 +2336,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2300,7 +2344,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2308,7 +2352,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2316,7 +2360,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2325,7 +2369,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2340,13 +2384,13 @@
     </row>
     <row r="14" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="B14" s="5">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="F14" s="10"/>
       <c r="H14" s="11"/>
@@ -2357,7 +2401,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="12:12" x14ac:dyDescent="0.55000000000000004">
@@ -2373,8 +2417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2382,7 +2426,7 @@
     <col min="1" max="1" width="15.15625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.83984375" style="5"/>
     <col min="3" max="3" width="40.26171875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.83984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.3125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.83984375" style="1"/>
   </cols>
   <sheetData>
@@ -2391,7 +2435,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2399,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2407,7 +2451,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2431,7 +2475,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2439,7 +2483,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2447,7 +2491,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2469,8 +2513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2487,7 +2531,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2495,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2503,7 +2547,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2528,7 +2572,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2536,7 +2580,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2544,7 +2588,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="I10" s="10"/>
     </row>
